--- a/output/StructureDefinition-PractitionerCabaRecupero.xlsx
+++ b/output/StructureDefinition-PractitionerCabaRecupero.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1626" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1627" uniqueCount="385">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-12T16:20:05-03:00</t>
+    <t>2025-07-12T17:02:17-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1139,13 +1139,19 @@
     <t>Practitioner.qualification.code</t>
   </si>
   <si>
-    <t>ProfesionalEfector.codProfesionFirmante / Solicitante</t>
+    <t>Coded representation of the qualification</t>
   </si>
   <si>
     <t>Coded representation of the qualification.</t>
   </si>
   <si>
-    <t>http://recuperocaba.gob.ar/ValueSet/recuperoprofesiones-valueset</t>
+    <t>example</t>
+  </si>
+  <si>
+    <t>Specific qualification the practitioner has to provide a service.</t>
+  </si>
+  <si>
+    <t>http://terminology.hl7.org/ValueSet/v2-2.7-0360</t>
   </si>
   <si>
     <t>./Qualifications.Value</t>
@@ -1541,7 +1547,7 @@
     <col min="23" max="23" width="15.01171875" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="82.29296875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="53.26953125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="45.25390625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.07421875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.98046875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="34.578125" customWidth="true" bestFit="true"/>
@@ -6192,11 +6198,13 @@
         <v>20</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="Y41" s="2"/>
+        <v>363</v>
+      </c>
+      <c r="Y41" t="s" s="2">
+        <v>364</v>
+      </c>
       <c r="Z41" t="s" s="2">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>20</v>
@@ -6235,7 +6243,7 @@
         <v>346</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>20</v>
@@ -6243,10 +6251,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6272,14 +6280,14 @@
         <v>206</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>20</v>
@@ -6328,7 +6336,7 @@
         <v>20</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>77</v>
@@ -6346,10 +6354,10 @@
         <v>20</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>20</v>
@@ -6357,10 +6365,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6386,10 +6394,10 @@
         <v>214</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6440,7 +6448,7 @@
         <v>20</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>77</v>
@@ -6458,7 +6466,7 @@
         <v>20</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>20</v>
@@ -6469,10 +6477,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6498,16 +6506,16 @@
         <v>176</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>20</v>
@@ -6556,7 +6564,7 @@
         <v>20</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>77</v>
@@ -6571,13 +6579,13 @@
         <v>99</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>20</v>

--- a/output/StructureDefinition-PractitionerCabaRecupero.xlsx
+++ b/output/StructureDefinition-PractitionerCabaRecupero.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-12T17:02:17-03:00</t>
+    <t>2025-07-14T12:58:17-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-PractitionerCabaRecupero.xlsx
+++ b/output/StructureDefinition-PractitionerCabaRecupero.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-14T12:58:17-03:00</t>
+    <t>2025-07-14T16:52:57-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
